--- a/data/data_monitoreo_19_de_agosto.xlsx
+++ b/data/data_monitoreo_19_de_agosto.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -462,27 +462,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SILVA ALVARADO EVELYN DE JESUS</t>
+          <t>TUANAMA PIZANGO ELIZABETH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MORETO ESPINOZA CRISTIAN ESTEBAN</t>
+          <t>SILVA ALVARADO EVELYN DE JESUS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -492,57 +492,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TENE TRABUCCO GIAN PIERRE</t>
+          <t>MORETO ESPINOZA CRISTIAN ESTEBAN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TUANAMA PIZANGO ELIZABETH</t>
+          <t>TENE TRABUCCO GIAN PIERRE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SANCARRANCO SANCHEZ DE CRUZ GISSELA SHANI</t>
+          <t>NEYRA PEREIRA MONICA AGNES ALEXANDRA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HERRERA JUAN MANUEL</t>
+          <t>SANCARRANCO SANCHEZ DE CRUZ GISSELA SHANI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NEYRA PEREIRA MONICA AGNES ALEXANDRA</t>
+          <t>HERRERA JUAN MANUEL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_19_de_agosto.xlsx
+++ b/data/data_monitoreo_19_de_agosto.xlsx
@@ -448,91 +448,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MOGOLLON MORON KARIN LISSET</t>
+          <t>NEYRA PEREIRA MONICA AGNES ALEXANDRA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHIROQUE YARLEQUE BETTY ELIZABETH</t>
+          <t>MOGOLLON MORON KARIN LISSET</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TUANAMA PIZANGO ELIZABETH</t>
+          <t>SILVA ALVARADO EVELYN DE JESUS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SILVA ALVARADO EVELYN DE JESUS</t>
+          <t>AGURTO TINEO CESIA JIMENA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AGURTO TINEO CESIA JIMENA</t>
+          <t>TUANAMA PIZANGO ELIZABETH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MORETO ESPINOZA CRISTIAN ESTEBAN</t>
+          <t>TENE TRABUCCO GIAN PIERRE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TENE TRABUCCO GIAN PIERRE</t>
+          <t>MORETO ESPINOZA CRISTIAN ESTEBAN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NEYRA PEREIRA MONICA AGNES ALEXANDRA</t>
+          <t>SANCARRANCO SANCHEZ DE CRUZ GISSELA SHANI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SANCARRANCO SANCHEZ DE CRUZ GISSELA SHANI</t>
+          <t>CHIROQUE YARLEQUE BETTY ELIZABETH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_19_de_agosto.xlsx
+++ b/data/data_monitoreo_19_de_agosto.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
@@ -472,17 +472,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AGURTO TINEO CESIA JIMENA</t>
+          <t>MORETO ESPINOZA CRISTIAN ESTEBAN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -502,47 +502,47 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MORETO ESPINOZA CRISTIAN ESTEBAN</t>
+          <t>SANCARRANCO SANCHEZ DE CRUZ GISSELA SHANI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SANCARRANCO SANCHEZ DE CRUZ GISSELA SHANI</t>
+          <t>CHIROQUE YARLEQUE BETTY ELIZABETH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHIROQUE YARLEQUE BETTY ELIZABETH</t>
+          <t>HERRERA JUAN MANUEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HERRERA JUAN MANUEL</t>
+          <t>AGURTO TINEO CESIA JIMENA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_19_de_agosto.xlsx
+++ b/data/data_monitoreo_19_de_agosto.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3">
@@ -462,87 +462,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SILVA ALVARADO EVELYN DE JESUS</t>
+          <t>TUANAMA PIZANGO ELIZABETH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MORETO ESPINOZA CRISTIAN ESTEBAN</t>
+          <t>AGURTO TINEO CESIA JIMENA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TUANAMA PIZANGO ELIZABETH</t>
+          <t>MORETO ESPINOZA CRISTIAN ESTEBAN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TENE TRABUCCO GIAN PIERRE</t>
+          <t>SANCARRANCO SANCHEZ DE CRUZ GISSELA SHANI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SANCARRANCO SANCHEZ DE CRUZ GISSELA SHANI</t>
+          <t>CHIROQUE YARLEQUE BETTY ELIZABETH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHIROQUE YARLEQUE BETTY ELIZABETH</t>
+          <t>HERRERA JUAN MANUEL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HERRERA JUAN MANUEL</t>
+          <t>SILVA ALVARADO EVELYN DE JESUS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AGURTO TINEO CESIA JIMENA</t>
+          <t>TENE TRABUCCO GIAN PIERRE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_19_de_agosto.xlsx
+++ b/data/data_monitoreo_19_de_agosto.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TUANAMA PIZANGO ELIZABETH</t>
+          <t>TENE TRABUCCO GIAN PIERRE</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -488,61 +488,61 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MORETO ESPINOZA CRISTIAN ESTEBAN</t>
+          <t>TUANAMA PIZANGO ELIZABETH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SANCARRANCO SANCHEZ DE CRUZ GISSELA SHANI</t>
+          <t>SILVA ALVARADO EVELYN DE JESUS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHIROQUE YARLEQUE BETTY ELIZABETH</t>
+          <t>MORETO ESPINOZA CRISTIAN ESTEBAN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HERRERA JUAN MANUEL</t>
+          <t>SANCARRANCO SANCHEZ DE CRUZ GISSELA SHANI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SILVA ALVARADO EVELYN DE JESUS</t>
+          <t>CHIROQUE YARLEQUE BETTY ELIZABETH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TENE TRABUCCO GIAN PIERRE</t>
+          <t>HERRERA JUAN MANUEL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_19_de_agosto.xlsx
+++ b/data/data_monitoreo_19_de_agosto.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
@@ -492,17 +492,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SILVA ALVARADO EVELYN DE JESUS</t>
+          <t>CHIROQUE YARLEQUE BETTY ELIZABETH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
@@ -522,27 +522,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHIROQUE YARLEQUE BETTY ELIZABETH</t>
+          <t>HERRERA JUAN MANUEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HERRERA JUAN MANUEL</t>
+          <t>SILVA ALVARADO EVELYN DE JESUS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_19_de_agosto.xlsx
+++ b/data/data_monitoreo_19_de_agosto.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>123</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
